--- a/converter/data/xlsx/9.9._BSMJENA.XLSX
+++ b/converter/data/xlsx/9.9._BSMJENA.XLSX
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\RASPORED-2019\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="9390" tabRatio="478"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="108">
   <si>
     <t>Predmetni profesor:</t>
   </si>
@@ -418,8 +423,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="37">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3083,6 +3088,18 @@
     <xf numFmtId="0" fontId="11" fillId="18" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3106,18 +3123,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3129,9 +3134,9 @@
   <cellStyles count="6">
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
     <cellStyle name="Normalno 2" xfId="1"/>
     <cellStyle name="Normalno 3" xfId="5"/>
-    <cellStyle name="Obično" xfId="0" builtinId="0"/>
     <cellStyle name="Obično 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3216,7 +3221,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3258,7 +3263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3290,9 +3295,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3324,6 +3330,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3499,17 +3506,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AM67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:G5"/>
+      <selection activeCell="AI20" sqref="AI20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
@@ -3537,97 +3544,97 @@
     <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="27" thickBot="1">
-      <c r="A1" s="388" t="s">
+    <row r="1" spans="1:37" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="392" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="388"/>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388"/>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
-      <c r="G1" s="388"/>
-      <c r="H1" s="388"/>
-      <c r="I1" s="388"/>
-      <c r="J1" s="388"/>
-      <c r="K1" s="388"/>
-      <c r="L1" s="388"/>
-      <c r="M1" s="388"/>
-      <c r="N1" s="388"/>
-      <c r="O1" s="388"/>
-      <c r="P1" s="388"/>
-      <c r="Q1" s="388"/>
-      <c r="R1" s="388"/>
-      <c r="S1" s="388"/>
-      <c r="T1" s="388"/>
-      <c r="U1" s="388"/>
-      <c r="V1" s="388"/>
-      <c r="W1" s="388"/>
-      <c r="X1" s="388"/>
-      <c r="Y1" s="388"/>
-      <c r="Z1" s="388"/>
-      <c r="AA1" s="388"/>
-      <c r="AB1" s="388"/>
-      <c r="AC1" s="388"/>
-      <c r="AD1" s="388"/>
-      <c r="AE1" s="388"/>
-      <c r="AF1" s="388"/>
-      <c r="AG1" s="388"/>
-      <c r="AH1" s="388"/>
-      <c r="AI1" s="388"/>
-      <c r="AJ1" s="388"/>
-    </row>
-    <row r="2" spans="1:37" ht="18">
+      <c r="B1" s="392"/>
+      <c r="C1" s="392"/>
+      <c r="D1" s="392"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="392"/>
+      <c r="G1" s="392"/>
+      <c r="H1" s="392"/>
+      <c r="I1" s="392"/>
+      <c r="J1" s="392"/>
+      <c r="K1" s="392"/>
+      <c r="L1" s="392"/>
+      <c r="M1" s="392"/>
+      <c r="N1" s="392"/>
+      <c r="O1" s="392"/>
+      <c r="P1" s="392"/>
+      <c r="Q1" s="392"/>
+      <c r="R1" s="392"/>
+      <c r="S1" s="392"/>
+      <c r="T1" s="392"/>
+      <c r="U1" s="392"/>
+      <c r="V1" s="392"/>
+      <c r="W1" s="392"/>
+      <c r="X1" s="392"/>
+      <c r="Y1" s="392"/>
+      <c r="Z1" s="392"/>
+      <c r="AA1" s="392"/>
+      <c r="AB1" s="392"/>
+      <c r="AC1" s="392"/>
+      <c r="AD1" s="392"/>
+      <c r="AE1" s="392"/>
+      <c r="AF1" s="392"/>
+      <c r="AG1" s="392"/>
+      <c r="AH1" s="392"/>
+      <c r="AI1" s="392"/>
+      <c r="AJ1" s="392"/>
+    </row>
+    <row r="2" spans="1:37" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="389" t="s">
+      <c r="B2" s="393" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="390"/>
-      <c r="D2" s="390"/>
-      <c r="E2" s="390"/>
-      <c r="F2" s="390"/>
-      <c r="G2" s="390"/>
-      <c r="H2" s="391"/>
-      <c r="I2" s="392" t="s">
+      <c r="C2" s="394"/>
+      <c r="D2" s="394"/>
+      <c r="E2" s="394"/>
+      <c r="F2" s="394"/>
+      <c r="G2" s="394"/>
+      <c r="H2" s="395"/>
+      <c r="I2" s="396" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="390"/>
-      <c r="K2" s="390"/>
-      <c r="L2" s="390"/>
-      <c r="M2" s="390"/>
-      <c r="N2" s="390"/>
-      <c r="O2" s="391"/>
-      <c r="P2" s="389" t="s">
+      <c r="J2" s="394"/>
+      <c r="K2" s="394"/>
+      <c r="L2" s="394"/>
+      <c r="M2" s="394"/>
+      <c r="N2" s="394"/>
+      <c r="O2" s="395"/>
+      <c r="P2" s="393" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="390"/>
-      <c r="R2" s="390"/>
-      <c r="S2" s="390"/>
-      <c r="T2" s="390"/>
-      <c r="U2" s="390"/>
-      <c r="V2" s="391"/>
-      <c r="W2" s="392" t="s">
+      <c r="Q2" s="394"/>
+      <c r="R2" s="394"/>
+      <c r="S2" s="394"/>
+      <c r="T2" s="394"/>
+      <c r="U2" s="394"/>
+      <c r="V2" s="395"/>
+      <c r="W2" s="396" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="390"/>
-      <c r="Y2" s="390"/>
-      <c r="Z2" s="390"/>
-      <c r="AA2" s="390"/>
-      <c r="AB2" s="390"/>
-      <c r="AC2" s="391"/>
-      <c r="AD2" s="393" t="s">
+      <c r="X2" s="394"/>
+      <c r="Y2" s="394"/>
+      <c r="Z2" s="394"/>
+      <c r="AA2" s="394"/>
+      <c r="AB2" s="394"/>
+      <c r="AC2" s="395"/>
+      <c r="AD2" s="397" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" s="394"/>
-      <c r="AF2" s="394"/>
-      <c r="AG2" s="394"/>
-      <c r="AH2" s="394"/>
-      <c r="AI2" s="394"/>
-      <c r="AJ2" s="395"/>
-    </row>
-    <row r="3" spans="1:37" ht="15.75" thickBot="1">
+      <c r="AE2" s="398"/>
+      <c r="AF2" s="398"/>
+      <c r="AG2" s="398"/>
+      <c r="AH2" s="398"/>
+      <c r="AI2" s="398"/>
+      <c r="AJ2" s="399"/>
+    </row>
+    <row r="3" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -3737,7 +3744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="18" customHeight="1" thickTop="1">
+    <row r="4" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="63" t="s">
         <v>59</v>
       </c>
@@ -3807,7 +3814,7 @@
       <c r="AI4" s="27"/>
       <c r="AJ4" s="246"/>
     </row>
-    <row r="5" spans="1:37" ht="18" customHeight="1">
+    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>34</v>
       </c>
@@ -3869,7 +3876,7 @@
       <c r="AI5" s="33"/>
       <c r="AJ5" s="37"/>
     </row>
-    <row r="6" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>77</v>
       </c>
@@ -3935,7 +3942,7 @@
       <c r="AI6" s="21"/>
       <c r="AJ6" s="39"/>
     </row>
-    <row r="7" spans="1:37" ht="18" customHeight="1">
+    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>78</v>
       </c>
@@ -4001,7 +4008,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="18" customHeight="1">
+    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>79</v>
       </c>
@@ -4053,7 +4060,7 @@
       <c r="AI8" s="12"/>
       <c r="AJ8" s="31"/>
     </row>
-    <row r="9" spans="1:37" ht="18" customHeight="1">
+    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>20</v>
       </c>
@@ -4103,7 +4110,7 @@
       <c r="AI9" s="12"/>
       <c r="AJ9" s="31"/>
     </row>
-    <row r="10" spans="1:37" ht="18" customHeight="1">
+    <row r="10" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>74</v>
       </c>
@@ -4167,7 +4174,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="18" customHeight="1">
+    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>60</v>
       </c>
@@ -4223,7 +4230,7 @@
       <c r="AI11" s="36"/>
       <c r="AJ11" s="25"/>
     </row>
-    <row r="12" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="12" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
@@ -4267,7 +4274,7 @@
       <c r="AI12" s="21"/>
       <c r="AJ12" s="39"/>
     </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1">
+    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
@@ -4323,7 +4330,7 @@
       <c r="AI13" s="12"/>
       <c r="AJ13" s="31"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1">
+    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
@@ -4367,7 +4374,7 @@
       <c r="AI14" s="12"/>
       <c r="AJ14" s="31"/>
     </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1">
+    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
@@ -4432,7 +4439,7 @@
       <c r="AJ15" s="31"/>
       <c r="AK15" s="113"/>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1">
+    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="371" t="s">
         <v>13</v>
       </c>
@@ -4487,7 +4494,7 @@
       <c r="AJ16" s="31"/>
       <c r="AK16" s="113"/>
     </row>
-    <row r="17" spans="1:39" ht="18" customHeight="1">
+    <row r="17" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="371" t="s">
         <v>43</v>
       </c>
@@ -4544,7 +4551,7 @@
       <c r="AJ17" s="31"/>
       <c r="AK17" s="113"/>
     </row>
-    <row r="18" spans="1:39" ht="18" customHeight="1">
+    <row r="18" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="371" t="s">
         <v>80</v>
       </c>
@@ -4593,7 +4600,7 @@
       <c r="AJ18" s="31"/>
       <c r="AK18" s="113"/>
     </row>
-    <row r="19" spans="1:39" ht="18" customHeight="1">
+    <row r="19" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>100</v>
       </c>
@@ -4628,7 +4635,9 @@
       <c r="AD19" s="367" t="s">
         <v>101</v>
       </c>
-      <c r="AE19" s="155"/>
+      <c r="AE19" s="367" t="s">
+        <v>101</v>
+      </c>
       <c r="AF19" s="12"/>
       <c r="AG19" s="12"/>
       <c r="AH19" s="12"/>
@@ -4636,7 +4645,7 @@
       <c r="AJ19" s="31"/>
       <c r="AK19" s="113"/>
     </row>
-    <row r="20" spans="1:39" ht="18" customHeight="1">
+    <row r="20" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>4</v>
       </c>
@@ -4685,7 +4694,7 @@
       <c r="AJ20" s="41"/>
       <c r="AK20" s="113"/>
     </row>
-    <row r="21" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="21" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>45</v>
       </c>
@@ -4735,7 +4744,7 @@
       <c r="AK21" s="113"/>
       <c r="AL21" s="113"/>
     </row>
-    <row r="22" spans="1:39" ht="18" customHeight="1">
+    <row r="22" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>81</v>
       </c>
@@ -4806,7 +4815,7 @@
       </c>
       <c r="AM22" s="113"/>
     </row>
-    <row r="23" spans="1:39" ht="18" customHeight="1">
+    <row r="23" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>19</v>
       </c>
@@ -4850,7 +4859,7 @@
       <c r="AI23" s="36"/>
       <c r="AJ23" s="25"/>
     </row>
-    <row r="24" spans="1:39" ht="18" customHeight="1">
+    <row r="24" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>70</v>
       </c>
@@ -4915,7 +4924,7 @@
       </c>
       <c r="AL24" s="113"/>
     </row>
-    <row r="25" spans="1:39" ht="18" customHeight="1">
+    <row r="25" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>75</v>
       </c>
@@ -4982,7 +4991,7 @@
       <c r="AJ25" s="25"/>
       <c r="AL25" s="113"/>
     </row>
-    <row r="26" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="26" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>44</v>
       </c>
@@ -5054,7 +5063,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="18" customHeight="1">
+    <row r="27" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="372" t="s">
         <v>38</v>
       </c>
@@ -5112,7 +5121,7 @@
       <c r="AK27" s="261"/>
       <c r="AL27" s="261"/>
     </row>
-    <row r="28" spans="1:39" ht="18" customHeight="1">
+    <row r="28" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>39</v>
       </c>
@@ -5168,7 +5177,7 @@
       <c r="AK28" s="262"/>
       <c r="AL28" s="263"/>
     </row>
-    <row r="29" spans="1:39" ht="18" customHeight="1">
+    <row r="29" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>46</v>
       </c>
@@ -5214,7 +5223,7 @@
       <c r="AK29" s="263"/>
       <c r="AL29" s="264"/>
     </row>
-    <row r="30" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="30" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="143" t="s">
         <v>36</v>
       </c>
@@ -5299,7 +5308,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="18" customHeight="1">
+    <row r="31" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>35</v>
       </c>
@@ -5354,7 +5363,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="18" customHeight="1">
+    <row r="32" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="371" t="s">
         <v>16</v>
       </c>
@@ -5423,7 +5432,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="18" customHeight="1">
+    <row r="33" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>58</v>
       </c>
@@ -5468,7 +5477,7 @@
       <c r="AJ33" s="49"/>
       <c r="AK33" s="167"/>
     </row>
-    <row r="34" spans="1:37" ht="18" customHeight="1">
+    <row r="34" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>5</v>
       </c>
@@ -5531,7 +5540,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="18" customHeight="1">
+    <row r="35" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>10</v>
       </c>
@@ -5582,7 +5591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="18" customHeight="1">
+    <row r="36" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>42</v>
       </c>
@@ -5625,7 +5634,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="18" customHeight="1">
+    <row r="37" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>14</v>
       </c>
@@ -5690,7 +5699,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="38" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>6</v>
       </c>
@@ -5759,7 +5768,7 @@
       <c r="AJ38" s="197"/>
       <c r="AK38" s="166"/>
     </row>
-    <row r="39" spans="1:37" ht="18" customHeight="1">
+    <row r="39" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="152" t="s">
         <v>82</v>
       </c>
@@ -5833,7 +5842,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="18" customHeight="1">
+    <row r="40" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>83</v>
       </c>
@@ -5895,7 +5904,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="18" customHeight="1">
+    <row r="41" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>61</v>
       </c>
@@ -5957,7 +5966,7 @@
       <c r="AI41" s="36"/>
       <c r="AJ41" s="49"/>
     </row>
-    <row r="42" spans="1:37" ht="18" customHeight="1">
+    <row r="42" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>40</v>
       </c>
@@ -6001,7 +6010,7 @@
       <c r="AI42" s="36"/>
       <c r="AJ42" s="49"/>
     </row>
-    <row r="43" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="43" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>62</v>
       </c>
@@ -6047,7 +6056,7 @@
       <c r="AI43" s="21"/>
       <c r="AJ43" s="202"/>
     </row>
-    <row r="44" spans="1:37" ht="18" customHeight="1">
+    <row r="44" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>7</v>
       </c>
@@ -6100,7 +6109,7 @@
       </c>
       <c r="AK44" s="131"/>
     </row>
-    <row r="45" spans="1:37" ht="18" customHeight="1">
+    <row r="45" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="371" t="s">
         <v>17</v>
       </c>
@@ -6147,7 +6156,7 @@
       </c>
       <c r="AK45" s="105"/>
     </row>
-    <row r="46" spans="1:37" ht="18" customHeight="1">
+    <row r="46" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>8</v>
       </c>
@@ -6200,7 +6209,7 @@
       </c>
       <c r="AK46" s="105"/>
     </row>
-    <row r="47" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="47" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>84</v>
       </c>
@@ -6246,7 +6255,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="18" customHeight="1">
+    <row r="48" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>86</v>
       </c>
@@ -6318,7 +6327,7 @@
       <c r="AI48" s="51"/>
       <c r="AJ48" s="53"/>
     </row>
-    <row r="49" spans="1:38" ht="18" customHeight="1">
+    <row r="49" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="371" t="s">
         <v>99</v>
       </c>
@@ -6362,7 +6371,7 @@
       <c r="AI49" s="30"/>
       <c r="AJ49" s="41"/>
     </row>
-    <row r="50" spans="1:38" ht="18" customHeight="1" thickBot="1">
+    <row r="50" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>87</v>
       </c>
@@ -6416,7 +6425,7 @@
       <c r="AI50" s="21"/>
       <c r="AJ50" s="39"/>
     </row>
-    <row r="51" spans="1:38" ht="18" customHeight="1">
+    <row r="51" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="276" t="s">
         <v>54</v>
       </c>
@@ -6497,7 +6506,7 @@
       </c>
       <c r="AK51" s="113"/>
     </row>
-    <row r="52" spans="1:38" ht="18" customHeight="1">
+    <row r="52" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>71</v>
       </c>
@@ -6558,7 +6567,7 @@
       <c r="AJ52" s="41"/>
       <c r="AL52" s="113"/>
     </row>
-    <row r="53" spans="1:38" ht="18" customHeight="1">
+    <row r="53" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>106</v>
       </c>
@@ -6622,7 +6631,7 @@
       <c r="AI53" s="46"/>
       <c r="AJ53" s="57"/>
     </row>
-    <row r="54" spans="1:38" ht="18" customHeight="1">
+    <row r="54" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>55</v>
       </c>
@@ -6710,7 +6719,7 @@
       <c r="AI54" s="46"/>
       <c r="AJ54" s="57"/>
     </row>
-    <row r="55" spans="1:38" ht="18" customHeight="1">
+    <row r="55" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>47</v>
       </c>
@@ -6773,7 +6782,7 @@
       </c>
       <c r="AK55" s="113"/>
     </row>
-    <row r="56" spans="1:38" ht="18" customHeight="1">
+    <row r="56" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>73</v>
       </c>
@@ -6856,7 +6865,7 @@
       </c>
       <c r="AK56" s="113"/>
     </row>
-    <row r="57" spans="1:38" ht="18" customHeight="1">
+    <row r="57" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>72</v>
       </c>
@@ -6933,7 +6942,7 @@
       <c r="AJ57" s="128"/>
       <c r="AK57" s="113"/>
     </row>
-    <row r="58" spans="1:38" ht="20.25" customHeight="1">
+    <row r="58" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>37</v>
       </c>
@@ -7004,7 +7013,7 @@
       <c r="AJ58" s="232"/>
       <c r="AK58" s="114"/>
     </row>
-    <row r="59" spans="1:38" ht="20.25" customHeight="1">
+    <row r="59" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="373" t="s">
         <v>85</v>
       </c>
@@ -7073,7 +7082,7 @@
       <c r="AJ59" s="232"/>
       <c r="AK59" s="114"/>
     </row>
-    <row r="60" spans="1:38" ht="20.25" customHeight="1">
+    <row r="60" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="373" t="s">
         <v>69</v>
       </c>
@@ -7124,7 +7133,7 @@
       <c r="AJ60" s="128"/>
       <c r="AL60" s="113"/>
     </row>
-    <row r="61" spans="1:38" ht="20.25" customHeight="1" thickBot="1">
+    <row r="61" spans="1:38" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="294" t="s">
         <v>57</v>
       </c>
@@ -7211,7 +7220,7 @@
       </c>
       <c r="AL61" s="113"/>
     </row>
-    <row r="62" spans="1:38" ht="13.5" thickBot="1">
+    <row r="62" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="61"/>
       <c r="C62" s="61"/>
       <c r="D62" s="61"/>
@@ -7248,70 +7257,70 @@
       <c r="AI62" s="61"/>
       <c r="AJ62" s="61"/>
     </row>
-    <row r="63" spans="1:38" ht="21" thickBot="1">
+    <row r="63" spans="1:38" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="396"/>
-      <c r="C63" s="397"/>
-      <c r="D63" s="397"/>
-      <c r="E63" s="397"/>
-      <c r="F63" s="397"/>
-      <c r="G63" s="397"/>
-      <c r="H63" s="399"/>
-      <c r="I63" s="396" t="s">
+      <c r="B63" s="388"/>
+      <c r="C63" s="389"/>
+      <c r="D63" s="389"/>
+      <c r="E63" s="389"/>
+      <c r="F63" s="389"/>
+      <c r="G63" s="389"/>
+      <c r="H63" s="391"/>
+      <c r="I63" s="388" t="s">
         <v>75</v>
       </c>
-      <c r="J63" s="397"/>
-      <c r="K63" s="397"/>
-      <c r="L63" s="397"/>
-      <c r="M63" s="397"/>
-      <c r="N63" s="397"/>
-      <c r="O63" s="399"/>
-      <c r="P63" s="396" t="s">
+      <c r="J63" s="389"/>
+      <c r="K63" s="389"/>
+      <c r="L63" s="389"/>
+      <c r="M63" s="389"/>
+      <c r="N63" s="389"/>
+      <c r="O63" s="391"/>
+      <c r="P63" s="388" t="s">
         <v>82</v>
       </c>
-      <c r="Q63" s="397"/>
-      <c r="R63" s="397"/>
-      <c r="S63" s="397"/>
-      <c r="T63" s="397"/>
-      <c r="U63" s="397"/>
-      <c r="V63" s="399"/>
-      <c r="W63" s="396" t="s">
+      <c r="Q63" s="389"/>
+      <c r="R63" s="389"/>
+      <c r="S63" s="389"/>
+      <c r="T63" s="389"/>
+      <c r="U63" s="389"/>
+      <c r="V63" s="391"/>
+      <c r="W63" s="388" t="s">
         <v>61</v>
       </c>
-      <c r="X63" s="397"/>
-      <c r="Y63" s="397"/>
-      <c r="Z63" s="397"/>
-      <c r="AA63" s="397"/>
-      <c r="AB63" s="397"/>
-      <c r="AC63" s="399"/>
-      <c r="AD63" s="396" t="s">
+      <c r="X63" s="389"/>
+      <c r="Y63" s="389"/>
+      <c r="Z63" s="389"/>
+      <c r="AA63" s="389"/>
+      <c r="AB63" s="389"/>
+      <c r="AC63" s="391"/>
+      <c r="AD63" s="388" t="s">
         <v>74</v>
       </c>
-      <c r="AE63" s="397"/>
-      <c r="AF63" s="397"/>
-      <c r="AG63" s="397"/>
-      <c r="AH63" s="397"/>
-      <c r="AI63" s="397"/>
-      <c r="AJ63" s="398"/>
-    </row>
-    <row r="67" spans="15:15">
+      <c r="AE63" s="389"/>
+      <c r="AF63" s="389"/>
+      <c r="AG63" s="389"/>
+      <c r="AH63" s="389"/>
+      <c r="AI63" s="389"/>
+      <c r="AJ63" s="390"/>
+    </row>
+    <row r="67" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O67" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AD63:AJ63"/>
-    <mergeCell ref="W63:AC63"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="I63:O63"/>
-    <mergeCell ref="P63:V63"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="AD63:AJ63"/>
+    <mergeCell ref="W63:AC63"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="I63:O63"/>
+    <mergeCell ref="P63:V63"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7323,14 +7332,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="328"/>
     <col min="2" max="2" width="16.42578125" style="328" customWidth="1"/>
@@ -7339,19 +7348,19 @@
     <col min="5" max="16384" width="8.85546875" style="328"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18.75">
+    <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="400" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="400"/>
       <c r="D1" s="400"/>
     </row>
-    <row r="2" spans="2:6" ht="18.75" thickBot="1">
+    <row r="2" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="177"/>
       <c r="C2" s="88"/>
       <c r="D2" s="89"/>
     </row>
-    <row r="3" spans="2:6" ht="18.75" thickBot="1">
+    <row r="3" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="329"/>
       <c r="C3" s="88" t="s">
         <v>23</v>
@@ -7360,12 +7369,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="18.75" thickBot="1">
+    <row r="4" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="177"/>
       <c r="C4" s="88"/>
       <c r="D4" s="89"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" thickBot="1">
+    <row r="5" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="178"/>
       <c r="C5" s="88" t="s">
         <v>23</v>
@@ -7374,12 +7383,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="18.75" thickBot="1">
+    <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="177"/>
       <c r="C6" s="88"/>
       <c r="D6" s="89"/>
     </row>
-    <row r="7" spans="2:6" ht="18.75" thickBot="1">
+    <row r="7" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="179"/>
       <c r="C7" s="88" t="s">
         <v>23</v>
@@ -7388,12 +7397,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="18.75" thickBot="1">
+    <row r="8" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="177"/>
       <c r="C8" s="88"/>
       <c r="D8" s="89"/>
     </row>
-    <row r="9" spans="2:6" ht="18.75" thickBot="1">
+    <row r="9" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="90"/>
       <c r="C9" s="88" t="s">
         <v>23</v>
@@ -7402,12 +7411,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18.75" thickBot="1">
+    <row r="10" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="180"/>
       <c r="C10" s="88"/>
       <c r="D10" s="89"/>
     </row>
-    <row r="11" spans="2:6" ht="18.75" thickBot="1">
+    <row r="11" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="204"/>
       <c r="C11" s="88" t="s">
         <v>23</v>
@@ -7416,12 +7425,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="18.75" thickBot="1">
+    <row r="12" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="180"/>
       <c r="C12" s="88"/>
       <c r="D12" s="89"/>
     </row>
-    <row r="13" spans="2:6" ht="18.75" thickBot="1">
+    <row r="13" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="184"/>
       <c r="C13" s="88" t="s">
         <v>23</v>
@@ -7430,13 +7439,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="18.75" thickBot="1">
+    <row r="14" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="330"/>
       <c r="C14" s="88"/>
       <c r="D14" s="181"/>
       <c r="F14" s="331"/>
     </row>
-    <row r="15" spans="2:6" ht="18.75" thickBot="1">
+    <row r="15" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="182"/>
       <c r="C15" s="88" t="s">
         <v>23</v>
@@ -7445,12 +7454,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18.75" thickBot="1">
+    <row r="16" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="177"/>
       <c r="C16" s="88"/>
       <c r="D16" s="89"/>
     </row>
-    <row r="17" spans="2:4" ht="18.75" thickBot="1">
+    <row r="17" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="332"/>
       <c r="C17" s="88" t="s">
         <v>23</v>
@@ -7459,12 +7468,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="18.75" thickBot="1">
+    <row r="18" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="177"/>
       <c r="C18" s="88"/>
       <c r="D18" s="89"/>
     </row>
-    <row r="19" spans="2:4" ht="18.75" thickBot="1">
+    <row r="19" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="91"/>
       <c r="C19" s="88" t="s">
         <v>23</v>
@@ -7473,12 +7482,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="18.75" thickBot="1">
+    <row r="20" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="177"/>
       <c r="C20" s="88"/>
       <c r="D20" s="89"/>
     </row>
-    <row r="21" spans="2:4" ht="18.75" thickBot="1">
+    <row r="21" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="203"/>
       <c r="C21" s="88" t="s">
         <v>23</v>
@@ -7487,12 +7496,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="18.75" thickBot="1">
+    <row r="22" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="177"/>
       <c r="C22" s="88"/>
       <c r="D22" s="89"/>
     </row>
-    <row r="23" spans="2:4" ht="18.75" thickBot="1">
+    <row r="23" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="92"/>
       <c r="C23" s="88" t="s">
         <v>23</v>
@@ -7501,12 +7510,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="18.75" thickBot="1">
+    <row r="24" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="177"/>
       <c r="C24" s="88"/>
       <c r="D24" s="89"/>
     </row>
-    <row r="25" spans="2:4" ht="18.75" thickBot="1">
+    <row r="25" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="93"/>
       <c r="C25" s="88" t="s">
         <v>23</v>
@@ -7515,12 +7524,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" thickBot="1">
+    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="177"/>
       <c r="C26" s="177"/>
       <c r="D26" s="89"/>
     </row>
-    <row r="27" spans="2:4" ht="21" thickBot="1">
+    <row r="27" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="94"/>
       <c r="C27" s="88" t="s">
         <v>23</v>
@@ -7529,12 +7538,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" thickBot="1">
+    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="177"/>
       <c r="C28" s="177"/>
       <c r="D28" s="177"/>
     </row>
-    <row r="29" spans="2:4" ht="18.75" thickBot="1">
+    <row r="29" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="183"/>
       <c r="C29" s="88" t="s">
         <v>23</v>
@@ -7543,12 +7552,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" thickBot="1">
+    <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="177"/>
       <c r="C30" s="177"/>
       <c r="D30" s="89"/>
     </row>
-    <row r="31" spans="2:4" ht="18.75" thickBot="1">
+    <row r="31" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="95"/>
       <c r="C31" s="88" t="s">
         <v>23</v>
@@ -7557,12 +7566,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" thickBot="1">
+    <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="177"/>
       <c r="C32" s="177"/>
       <c r="D32" s="177"/>
     </row>
-    <row r="33" spans="2:4" ht="18.75" thickBot="1">
+    <row r="33" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="96"/>
       <c r="C33" s="88" t="s">
         <v>23</v>
@@ -7571,31 +7580,31 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="177"/>
       <c r="C34" s="177"/>
       <c r="D34" s="177"/>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="177"/>
       <c r="C35" s="177"/>
       <c r="D35" s="177"/>
     </row>
-    <row r="36" spans="2:4" ht="18">
+    <row r="36" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B36" s="401" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="401"/>
       <c r="D36" s="401"/>
     </row>
-    <row r="37" spans="2:4" ht="18">
+    <row r="37" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B37" s="401" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="401"/>
       <c r="D37" s="401"/>
     </row>
-    <row r="38" spans="2:4" ht="18">
+    <row r="38" spans="2:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B38" s="401" t="s">
         <v>33</v>
       </c>
